--- a/Messungen/Doppler-Messungen/Auswertung/Auswertung.xlsx
+++ b/Messungen/Doppler-Messungen/Auswertung/Auswertung.xlsx
@@ -5,27 +5,39 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Levin\Schule\JugendForscht\Messungen\Doppler-Messungen\Auswertung\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Levin\Schule\JugendForscht2022\Messungen\Doppler-Messungen\Auswertung\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3642F02-BCAF-4C5A-B0F8-E54DBB780977}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77714A2D-7D19-4FC3-960A-4F65494957AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="57480" yWindow="14520" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
+    <sheet name="Testeingaben" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="14">
   <si>
     <t>Feld für Testeingaben</t>
   </si>
@@ -73,7 +85,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="18">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -167,6 +179,45 @@
       <color theme="1"/>
       <name val="CMU Serif Extra"/>
     </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="18"/>
+      <color theme="1" tint="0.249977111117893"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -460,7 +511,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -488,13 +539,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="3" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="3" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -524,7 +575,15 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="2" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="7" applyFont="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="7" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="4" xfId="4" applyFont="1"/>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="4" xfId="6" applyFont="1"/>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="5" xfId="5" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1214,19 +1273,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:R28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.77734375" defaultRowHeight="14.4"/>
+  <cols>
+    <col min="7" max="7" width="8.77734375" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="2" spans="2:18" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="3" spans="2:18" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="2:18" ht="15" thickBot="1"/>
+    <row r="3" spans="2:18" ht="15" thickBot="1">
       <c r="I3" s="6" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="2:18" ht="14.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="2:18" ht="14.55" customHeight="1" thickBot="1">
       <c r="B4" s="22"/>
       <c r="C4" s="23"/>
       <c r="D4" s="22"/>
@@ -1246,7 +1308,7 @@
       <c r="Q4" s="9"/>
       <c r="R4" s="10"/>
     </row>
-    <row r="5" spans="2:18" ht="14.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="2:18" ht="14.55" customHeight="1" thickBot="1">
       <c r="B5" s="24"/>
       <c r="C5" s="25"/>
       <c r="D5" s="24"/>
@@ -1256,17 +1318,17 @@
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
       <c r="K5" s="11"/>
-      <c r="L5" s="21" t="s">
+      <c r="L5" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="M5" s="21"/>
-      <c r="N5" s="21"/>
-      <c r="O5" s="21"/>
-      <c r="P5" s="21"/>
-      <c r="Q5" s="21"/>
+      <c r="M5" s="19"/>
+      <c r="N5" s="19"/>
+      <c r="O5" s="19"/>
+      <c r="P5" s="19"/>
+      <c r="Q5" s="19"/>
       <c r="R5" s="12"/>
     </row>
-    <row r="6" spans="2:18" ht="14.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="2:18" ht="14.55" customHeight="1" thickBot="1">
       <c r="B6" s="26"/>
       <c r="C6" s="27"/>
       <c r="D6" s="26"/>
@@ -1293,7 +1355,7 @@
       </c>
       <c r="R6" s="12"/>
     </row>
-    <row r="7" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="7" spans="2:18">
       <c r="K7" s="11"/>
       <c r="L7" s="2">
         <v>113</v>
@@ -1315,13 +1377,14 @@
       </c>
       <c r="R7" s="12"/>
     </row>
-    <row r="8" spans="2:18" ht="17.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="8" spans="2:18" ht="17.399999999999999">
       <c r="C8" s="31" t="s">
         <v>0</v>
       </c>
       <c r="D8" s="31"/>
       <c r="E8" s="31"/>
       <c r="F8" s="31"/>
+      <c r="G8" s="31"/>
       <c r="K8" s="11"/>
       <c r="L8" s="2">
         <v>224</v>
@@ -1343,7 +1406,7 @@
       </c>
       <c r="R8" s="12"/>
     </row>
-    <row r="9" spans="2:18" ht="15" thickTop="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="2:18">
       <c r="C9" s="5" t="s">
         <v>1</v>
       </c>
@@ -1380,7 +1443,7 @@
       </c>
       <c r="R9" s="12"/>
     </row>
-    <row r="10" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="10" spans="2:18">
       <c r="C10" s="2">
         <v>47</v>
       </c>
@@ -1420,7 +1483,7 @@
       </c>
       <c r="R10" s="12"/>
     </row>
-    <row r="11" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="11" spans="2:18">
       <c r="K11" s="11"/>
       <c r="L11" s="2">
         <v>560</v>
@@ -1442,7 +1505,7 @@
       </c>
       <c r="R11" s="12"/>
     </row>
-    <row r="12" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="12" spans="2:18">
       <c r="K12" s="11"/>
       <c r="L12" s="2">
         <v>673</v>
@@ -1464,19 +1527,19 @@
       </c>
       <c r="R12" s="12"/>
     </row>
-    <row r="13" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="13" spans="2:18">
       <c r="K13" s="11"/>
       <c r="R13" s="12"/>
     </row>
-    <row r="14" spans="2:18" ht="20" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="C14" s="20" t="s">
+    <row r="14" spans="2:18" ht="20.399999999999999" thickBot="1">
+      <c r="C14" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="D14" s="20"/>
-      <c r="E14" s="20"/>
-      <c r="F14" s="20"/>
-      <c r="G14" s="20"/>
-      <c r="H14" s="20"/>
+      <c r="D14" s="21"/>
+      <c r="E14" s="21"/>
+      <c r="F14" s="21"/>
+      <c r="G14" s="21"/>
+      <c r="H14" s="21"/>
       <c r="K14" s="11"/>
       <c r="O14" t="s">
         <v>8</v>
@@ -1491,15 +1554,15 @@
       </c>
       <c r="R14" s="12"/>
     </row>
-    <row r="15" spans="2:18" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="C15" s="19" t="s">
+    <row r="15" spans="2:18" ht="15" customHeight="1" thickTop="1">
+      <c r="C15" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="D15" s="19"/>
-      <c r="E15" s="19"/>
-      <c r="F15" s="19"/>
-      <c r="G15" s="19"/>
-      <c r="H15" s="19"/>
+      <c r="D15" s="20"/>
+      <c r="E15" s="20"/>
+      <c r="F15" s="20"/>
+      <c r="G15" s="20"/>
+      <c r="H15" s="20"/>
       <c r="K15" s="11"/>
       <c r="P15" t="s">
         <v>9</v>
@@ -1509,13 +1572,13 @@
       </c>
       <c r="R15" s="12"/>
     </row>
-    <row r="16" spans="2:18" x14ac:dyDescent="0.35">
-      <c r="C16" s="19"/>
-      <c r="D16" s="19"/>
-      <c r="E16" s="19"/>
-      <c r="F16" s="19"/>
-      <c r="G16" s="19"/>
-      <c r="H16" s="19"/>
+    <row r="16" spans="2:18">
+      <c r="C16" s="20"/>
+      <c r="D16" s="20"/>
+      <c r="E16" s="20"/>
+      <c r="F16" s="20"/>
+      <c r="G16" s="20"/>
+      <c r="H16" s="20"/>
       <c r="K16" s="15"/>
       <c r="L16" s="16"/>
       <c r="M16" s="16"/>
@@ -1525,15 +1588,15 @@
       <c r="Q16" s="16"/>
       <c r="R16" s="17"/>
     </row>
-    <row r="17" spans="3:8" x14ac:dyDescent="0.35">
-      <c r="C17" s="19"/>
-      <c r="D17" s="19"/>
-      <c r="E17" s="19"/>
-      <c r="F17" s="19"/>
-      <c r="G17" s="19"/>
-      <c r="H17" s="19"/>
-    </row>
-    <row r="18" spans="3:8" x14ac:dyDescent="0.35">
+    <row r="17" spans="3:8">
+      <c r="C17" s="20"/>
+      <c r="D17" s="20"/>
+      <c r="E17" s="20"/>
+      <c r="F17" s="20"/>
+      <c r="G17" s="20"/>
+      <c r="H17" s="20"/>
+    </row>
+    <row r="18" spans="3:8">
       <c r="C18" s="18"/>
       <c r="D18" s="18"/>
       <c r="E18" s="18"/>
@@ -1541,7 +1604,7 @@
       <c r="G18" s="18"/>
       <c r="H18" s="18"/>
     </row>
-    <row r="19" spans="3:8" x14ac:dyDescent="0.35">
+    <row r="19" spans="3:8">
       <c r="C19" s="18"/>
       <c r="D19" s="18"/>
       <c r="E19" s="18"/>
@@ -1549,17 +1612,17 @@
       <c r="G19" s="18"/>
       <c r="H19" s="18"/>
     </row>
-    <row r="21" spans="3:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C21" s="21" t="s">
+    <row r="21" spans="3:8" ht="15" thickBot="1">
+      <c r="C21" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="D21" s="21"/>
-      <c r="E21" s="21"/>
-      <c r="F21" s="21"/>
-      <c r="G21" s="21"/>
-      <c r="H21" s="21"/>
-    </row>
-    <row r="22" spans="3:8" x14ac:dyDescent="0.35">
+      <c r="D21" s="19"/>
+      <c r="E21" s="19"/>
+      <c r="F21" s="19"/>
+      <c r="G21" s="19"/>
+      <c r="H21" s="19"/>
+    </row>
+    <row r="22" spans="3:8">
       <c r="C22" s="13" t="s">
         <v>1</v>
       </c>
@@ -1576,7 +1639,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="23" spans="3:8" x14ac:dyDescent="0.35">
+    <row r="23" spans="3:8">
       <c r="C23" s="2">
         <v>1023</v>
       </c>
@@ -1596,7 +1659,7 @@
         <v>25.250274314214426</v>
       </c>
     </row>
-    <row r="24" spans="3:8" x14ac:dyDescent="0.35">
+    <row r="24" spans="3:8">
       <c r="C24" s="2"/>
       <c r="D24" s="2"/>
       <c r="E24" s="4" t="e">
@@ -1612,7 +1675,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="25" spans="3:8" x14ac:dyDescent="0.35">
+    <row r="25" spans="3:8">
       <c r="C25" s="2"/>
       <c r="D25" s="2"/>
       <c r="E25" s="4" t="e">
@@ -1628,7 +1691,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="26" spans="3:8" x14ac:dyDescent="0.35">
+    <row r="26" spans="3:8">
       <c r="C26" s="2"/>
       <c r="D26" s="2"/>
       <c r="E26" s="4" t="e">
@@ -1644,7 +1707,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="27" spans="3:8" x14ac:dyDescent="0.35">
+    <row r="27" spans="3:8">
       <c r="C27" s="2"/>
       <c r="D27" s="2"/>
       <c r="E27" s="4" t="e">
@@ -1660,7 +1723,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="28" spans="3:8" x14ac:dyDescent="0.35">
+    <row r="28" spans="3:8">
       <c r="C28" s="2"/>
       <c r="D28" s="2"/>
       <c r="E28" s="4" t="e">
@@ -1684,10 +1747,88 @@
     <mergeCell ref="C21:H21"/>
     <mergeCell ref="B4:C6"/>
     <mergeCell ref="D4:G6"/>
-    <mergeCell ref="C8:F8"/>
+    <mergeCell ref="C8:G8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{10BA38C1-230B-41A2-99A4-A6D15C8563F8}">
+  <dimension ref="C3:I6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G6" sqref="G6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>
+  <cols>
+    <col min="3" max="3" width="17.5546875" customWidth="1"/>
+    <col min="4" max="4" width="17.44140625" customWidth="1"/>
+    <col min="5" max="5" width="21.6640625" customWidth="1"/>
+    <col min="6" max="6" width="18.44140625" customWidth="1"/>
+    <col min="7" max="7" width="19.77734375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="3:9" ht="15" thickBot="1"/>
+    <row r="4" spans="3:9" ht="24" thickBot="1">
+      <c r="C4" s="37" t="s">
+        <v>0</v>
+      </c>
+      <c r="D4" s="37"/>
+      <c r="E4" s="37"/>
+      <c r="F4" s="37"/>
+      <c r="G4" s="37"/>
+      <c r="I4" s="6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="3:9" ht="24.6" thickTop="1" thickBot="1">
+      <c r="C5" s="32" t="s">
+        <v>1</v>
+      </c>
+      <c r="D5" s="32" t="s">
+        <v>2</v>
+      </c>
+      <c r="E5" s="32" t="s">
+        <v>3</v>
+      </c>
+      <c r="F5" s="33" t="s">
+        <v>6</v>
+      </c>
+      <c r="G5" s="33" t="s">
+        <v>7</v>
+      </c>
+      <c r="I5" s="7">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="6" spans="3:9" ht="23.4">
+      <c r="C6" s="34">
+        <v>47</v>
+      </c>
+      <c r="D6" s="34">
+        <v>43</v>
+      </c>
+      <c r="E6" s="35">
+        <f>C6/D6</f>
+        <v>1.0930232558139534</v>
+      </c>
+      <c r="F6" s="36">
+        <f>(E6 - 1) / (E6 + 1) * $I$5</f>
+        <v>15.244444444444433</v>
+      </c>
+      <c r="G6" s="36">
+        <f>F6*3.6</f>
+        <v>54.87999999999996</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="C4:G4"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Messungen/Doppler-Messungen/Auswertung/Auswertung.xlsx
+++ b/Messungen/Doppler-Messungen/Auswertung/Auswertung.xlsx
@@ -5,32 +5,21 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Levin\Schule\JugendForscht2022\Messungen\Doppler-Messungen\Auswertung\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Levin\Schule\JugendForscht\Messungen\Doppler-Messungen\Auswertung\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77714A2D-7D19-4FC3-960A-4F65494957AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCA405F3-B74C-4178-8FC9-CC78CA24500A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="57480" yWindow="14520" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
     <sheet name="Testeingaben" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -85,7 +74,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="18">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -539,6 +528,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="7" applyFont="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="7" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="4" xfId="4" applyFont="1"/>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="4" xfId="6" applyFont="1"/>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="5" xfId="5" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="3" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -578,11 +572,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="7" applyFont="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="7" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="4" xfId="4" applyFont="1"/>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="4" xfId="6" applyFont="1"/>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="5" xfId="5" applyFont="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1277,24 +1266,24 @@
       <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.77734375" defaultRowHeight="14.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="7" max="7" width="8.77734375" customWidth="1"/>
+    <col min="7" max="7" width="8.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:18" ht="15" thickBot="1"/>
-    <row r="3" spans="2:18" ht="15" thickBot="1">
+    <row r="2" spans="2:18" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="3" spans="2:18" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="I3" s="6" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="2:18" ht="14.55" customHeight="1" thickBot="1">
-      <c r="B4" s="22"/>
-      <c r="C4" s="23"/>
-      <c r="D4" s="22"/>
-      <c r="E4" s="28"/>
-      <c r="F4" s="28"/>
-      <c r="G4" s="23"/>
+    <row r="4" spans="2:18" ht="14.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B4" s="27"/>
+      <c r="C4" s="28"/>
+      <c r="D4" s="27"/>
+      <c r="E4" s="33"/>
+      <c r="F4" s="33"/>
+      <c r="G4" s="28"/>
       <c r="H4" s="1"/>
       <c r="I4" s="7">
         <v>343</v>
@@ -1308,33 +1297,33 @@
       <c r="Q4" s="9"/>
       <c r="R4" s="10"/>
     </row>
-    <row r="5" spans="2:18" ht="14.55" customHeight="1" thickBot="1">
-      <c r="B5" s="24"/>
-      <c r="C5" s="25"/>
-      <c r="D5" s="24"/>
-      <c r="E5" s="29"/>
-      <c r="F5" s="29"/>
-      <c r="G5" s="25"/>
+    <row r="5" spans="2:18" ht="14.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B5" s="29"/>
+      <c r="C5" s="30"/>
+      <c r="D5" s="29"/>
+      <c r="E5" s="34"/>
+      <c r="F5" s="34"/>
+      <c r="G5" s="30"/>
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
       <c r="K5" s="11"/>
-      <c r="L5" s="19" t="s">
+      <c r="L5" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="M5" s="19"/>
-      <c r="N5" s="19"/>
-      <c r="O5" s="19"/>
-      <c r="P5" s="19"/>
-      <c r="Q5" s="19"/>
+      <c r="M5" s="24"/>
+      <c r="N5" s="24"/>
+      <c r="O5" s="24"/>
+      <c r="P5" s="24"/>
+      <c r="Q5" s="24"/>
       <c r="R5" s="12"/>
     </row>
-    <row r="6" spans="2:18" ht="14.55" customHeight="1" thickBot="1">
-      <c r="B6" s="26"/>
-      <c r="C6" s="27"/>
-      <c r="D6" s="26"/>
-      <c r="E6" s="30"/>
-      <c r="F6" s="30"/>
-      <c r="G6" s="27"/>
+    <row r="6" spans="2:18" ht="14.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B6" s="31"/>
+      <c r="C6" s="32"/>
+      <c r="D6" s="31"/>
+      <c r="E6" s="35"/>
+      <c r="F6" s="35"/>
+      <c r="G6" s="32"/>
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
       <c r="K6" s="11"/>
@@ -1355,7 +1344,7 @@
       </c>
       <c r="R6" s="12"/>
     </row>
-    <row r="7" spans="2:18">
+    <row r="7" spans="2:18" x14ac:dyDescent="0.35">
       <c r="K7" s="11"/>
       <c r="L7" s="2">
         <v>113</v>
@@ -1377,14 +1366,14 @@
       </c>
       <c r="R7" s="12"/>
     </row>
-    <row r="8" spans="2:18" ht="17.399999999999999">
-      <c r="C8" s="31" t="s">
+    <row r="8" spans="2:18" ht="17" x14ac:dyDescent="0.4">
+      <c r="C8" s="36" t="s">
         <v>0</v>
       </c>
-      <c r="D8" s="31"/>
-      <c r="E8" s="31"/>
-      <c r="F8" s="31"/>
-      <c r="G8" s="31"/>
+      <c r="D8" s="36"/>
+      <c r="E8" s="36"/>
+      <c r="F8" s="36"/>
+      <c r="G8" s="36"/>
       <c r="K8" s="11"/>
       <c r="L8" s="2">
         <v>224</v>
@@ -1406,7 +1395,7 @@
       </c>
       <c r="R8" s="12"/>
     </row>
-    <row r="9" spans="2:18">
+    <row r="9" spans="2:18" x14ac:dyDescent="0.35">
       <c r="C9" s="5" t="s">
         <v>1</v>
       </c>
@@ -1443,7 +1432,7 @@
       </c>
       <c r="R9" s="12"/>
     </row>
-    <row r="10" spans="2:18">
+    <row r="10" spans="2:18" x14ac:dyDescent="0.35">
       <c r="C10" s="2">
         <v>47</v>
       </c>
@@ -1483,7 +1472,7 @@
       </c>
       <c r="R10" s="12"/>
     </row>
-    <row r="11" spans="2:18">
+    <row r="11" spans="2:18" x14ac:dyDescent="0.35">
       <c r="K11" s="11"/>
       <c r="L11" s="2">
         <v>560</v>
@@ -1505,7 +1494,7 @@
       </c>
       <c r="R11" s="12"/>
     </row>
-    <row r="12" spans="2:18">
+    <row r="12" spans="2:18" x14ac:dyDescent="0.35">
       <c r="K12" s="11"/>
       <c r="L12" s="2">
         <v>673</v>
@@ -1527,19 +1516,19 @@
       </c>
       <c r="R12" s="12"/>
     </row>
-    <row r="13" spans="2:18">
+    <row r="13" spans="2:18" x14ac:dyDescent="0.35">
       <c r="K13" s="11"/>
       <c r="R13" s="12"/>
     </row>
-    <row r="14" spans="2:18" ht="20.399999999999999" thickBot="1">
-      <c r="C14" s="21" t="s">
+    <row r="14" spans="2:18" ht="20" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="C14" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="D14" s="21"/>
-      <c r="E14" s="21"/>
-      <c r="F14" s="21"/>
-      <c r="G14" s="21"/>
-      <c r="H14" s="21"/>
+      <c r="D14" s="26"/>
+      <c r="E14" s="26"/>
+      <c r="F14" s="26"/>
+      <c r="G14" s="26"/>
+      <c r="H14" s="26"/>
       <c r="K14" s="11"/>
       <c r="O14" t="s">
         <v>8</v>
@@ -1554,15 +1543,15 @@
       </c>
       <c r="R14" s="12"/>
     </row>
-    <row r="15" spans="2:18" ht="15" customHeight="1" thickTop="1">
-      <c r="C15" s="20" t="s">
+    <row r="15" spans="2:18" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
+      <c r="C15" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="D15" s="20"/>
-      <c r="E15" s="20"/>
-      <c r="F15" s="20"/>
-      <c r="G15" s="20"/>
-      <c r="H15" s="20"/>
+      <c r="D15" s="25"/>
+      <c r="E15" s="25"/>
+      <c r="F15" s="25"/>
+      <c r="G15" s="25"/>
+      <c r="H15" s="25"/>
       <c r="K15" s="11"/>
       <c r="P15" t="s">
         <v>9</v>
@@ -1572,13 +1561,13 @@
       </c>
       <c r="R15" s="12"/>
     </row>
-    <row r="16" spans="2:18">
-      <c r="C16" s="20"/>
-      <c r="D16" s="20"/>
-      <c r="E16" s="20"/>
-      <c r="F16" s="20"/>
-      <c r="G16" s="20"/>
-      <c r="H16" s="20"/>
+    <row r="16" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="C16" s="25"/>
+      <c r="D16" s="25"/>
+      <c r="E16" s="25"/>
+      <c r="F16" s="25"/>
+      <c r="G16" s="25"/>
+      <c r="H16" s="25"/>
       <c r="K16" s="15"/>
       <c r="L16" s="16"/>
       <c r="M16" s="16"/>
@@ -1588,15 +1577,15 @@
       <c r="Q16" s="16"/>
       <c r="R16" s="17"/>
     </row>
-    <row r="17" spans="3:8">
-      <c r="C17" s="20"/>
-      <c r="D17" s="20"/>
-      <c r="E17" s="20"/>
-      <c r="F17" s="20"/>
-      <c r="G17" s="20"/>
-      <c r="H17" s="20"/>
-    </row>
-    <row r="18" spans="3:8">
+    <row r="17" spans="3:8" x14ac:dyDescent="0.35">
+      <c r="C17" s="25"/>
+      <c r="D17" s="25"/>
+      <c r="E17" s="25"/>
+      <c r="F17" s="25"/>
+      <c r="G17" s="25"/>
+      <c r="H17" s="25"/>
+    </row>
+    <row r="18" spans="3:8" x14ac:dyDescent="0.35">
       <c r="C18" s="18"/>
       <c r="D18" s="18"/>
       <c r="E18" s="18"/>
@@ -1604,7 +1593,7 @@
       <c r="G18" s="18"/>
       <c r="H18" s="18"/>
     </row>
-    <row r="19" spans="3:8">
+    <row r="19" spans="3:8" x14ac:dyDescent="0.35">
       <c r="C19" s="18"/>
       <c r="D19" s="18"/>
       <c r="E19" s="18"/>
@@ -1612,17 +1601,17 @@
       <c r="G19" s="18"/>
       <c r="H19" s="18"/>
     </row>
-    <row r="21" spans="3:8" ht="15" thickBot="1">
-      <c r="C21" s="19" t="s">
+    <row r="21" spans="3:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="C21" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="D21" s="19"/>
-      <c r="E21" s="19"/>
-      <c r="F21" s="19"/>
-      <c r="G21" s="19"/>
-      <c r="H21" s="19"/>
-    </row>
-    <row r="22" spans="3:8">
+      <c r="D21" s="24"/>
+      <c r="E21" s="24"/>
+      <c r="F21" s="24"/>
+      <c r="G21" s="24"/>
+      <c r="H21" s="24"/>
+    </row>
+    <row r="22" spans="3:8" x14ac:dyDescent="0.35">
       <c r="C22" s="13" t="s">
         <v>1</v>
       </c>
@@ -1639,7 +1628,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="23" spans="3:8">
+    <row r="23" spans="3:8" x14ac:dyDescent="0.35">
       <c r="C23" s="2">
         <v>1023</v>
       </c>
@@ -1659,7 +1648,7 @@
         <v>25.250274314214426</v>
       </c>
     </row>
-    <row r="24" spans="3:8">
+    <row r="24" spans="3:8" x14ac:dyDescent="0.35">
       <c r="C24" s="2"/>
       <c r="D24" s="2"/>
       <c r="E24" s="4" t="e">
@@ -1675,7 +1664,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="25" spans="3:8">
+    <row r="25" spans="3:8" x14ac:dyDescent="0.35">
       <c r="C25" s="2"/>
       <c r="D25" s="2"/>
       <c r="E25" s="4" t="e">
@@ -1691,7 +1680,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="26" spans="3:8">
+    <row r="26" spans="3:8" x14ac:dyDescent="0.35">
       <c r="C26" s="2"/>
       <c r="D26" s="2"/>
       <c r="E26" s="4" t="e">
@@ -1707,7 +1696,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="27" spans="3:8">
+    <row r="27" spans="3:8" x14ac:dyDescent="0.35">
       <c r="C27" s="2"/>
       <c r="D27" s="2"/>
       <c r="E27" s="4" t="e">
@@ -1723,7 +1712,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="28" spans="3:8">
+    <row r="28" spans="3:8" x14ac:dyDescent="0.35">
       <c r="C28" s="2"/>
       <c r="D28" s="2"/>
       <c r="E28" s="4" t="e">
@@ -1760,20 +1749,20 @@
   <dimension ref="C3:I6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="3" max="3" width="17.5546875" customWidth="1"/>
-    <col min="4" max="4" width="17.44140625" customWidth="1"/>
-    <col min="5" max="5" width="21.6640625" customWidth="1"/>
-    <col min="6" max="6" width="18.44140625" customWidth="1"/>
-    <col min="7" max="7" width="19.77734375" customWidth="1"/>
+    <col min="3" max="3" width="17.54296875" customWidth="1"/>
+    <col min="4" max="4" width="17.453125" customWidth="1"/>
+    <col min="5" max="5" width="21.6328125" customWidth="1"/>
+    <col min="6" max="6" width="18.453125" customWidth="1"/>
+    <col min="7" max="7" width="19.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="3:9" ht="15" thickBot="1"/>
-    <row r="4" spans="3:9" ht="24" thickBot="1">
+    <row r="3" spans="3:9" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="4" spans="3:9" ht="24" thickBot="1" x14ac:dyDescent="0.6">
       <c r="C4" s="37" t="s">
         <v>0</v>
       </c>
@@ -1785,44 +1774,44 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="3:9" ht="24.6" thickTop="1" thickBot="1">
-      <c r="C5" s="32" t="s">
+    <row r="5" spans="3:9" ht="24.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="C5" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="D5" s="32" t="s">
+      <c r="D5" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="E5" s="32" t="s">
+      <c r="E5" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="F5" s="33" t="s">
+      <c r="F5" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="G5" s="33" t="s">
+      <c r="G5" s="20" t="s">
         <v>7</v>
       </c>
       <c r="I5" s="7">
         <v>343</v>
       </c>
     </row>
-    <row r="6" spans="3:9" ht="23.4">
-      <c r="C6" s="34">
-        <v>47</v>
-      </c>
-      <c r="D6" s="34">
-        <v>43</v>
-      </c>
-      <c r="E6" s="35">
+    <row r="6" spans="3:9" ht="23.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="C6" s="21">
+        <v>200</v>
+      </c>
+      <c r="D6" s="21">
+        <v>199</v>
+      </c>
+      <c r="E6" s="22">
         <f>C6/D6</f>
-        <v>1.0930232558139534</v>
-      </c>
-      <c r="F6" s="36">
+        <v>1.0050251256281406</v>
+      </c>
+      <c r="F6" s="23">
         <f>(E6 - 1) / (E6 + 1) * $I$5</f>
-        <v>15.244444444444433</v>
-      </c>
-      <c r="G6" s="36">
+        <v>0.85964912280700234</v>
+      </c>
+      <c r="G6" s="23">
         <f>F6*3.6</f>
-        <v>54.87999999999996</v>
+        <v>3.0947368421052084</v>
       </c>
     </row>
   </sheetData>
